--- a/biology/Médecine/Arno_Gruen/Arno_Gruen.xlsx
+++ b/biology/Médecine/Arno_Gruen/Arno_Gruen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arno Gruen , né le 26 mai 1923 à Berlin et mort le 20 octobre 2015 à Zurich, est un écrivain, philosophe, psychologue et psychothérapeute allemano-suisse.
 Il choisit de s'installer à Zurich après avoir vécu plusieurs décennies aux États-Unis.
@@ -512,15 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parents de Gruen étaient juifs. En 1936, sa famille fuit l'Allemagne nazie pour émigrer aux États-Unis via la Pologne et le Danemark. Le jeune Arno emporta avec lui trois livres : un dictionnaire, un volume de poèmes de Chaim Nachman Bialik et la Bible.
 Il étudia la psychologie à New York et en 1958 ouvrit un cabinet de psychothérapie. En 1961 il passa sa thèse avec Theodor Reik. Puis il occupa différents postes, dont celui de professeur de psychologie à la Rutgers University, dans le New Jersey. Depuis 1979 il vit et exerce à Zurich, en Suisse.
 À New York, Gruen était l'ami de l'écrivain Henry Miller, qui l'a beaucoup influencé.
 En 2001 il reçut le prix frère et sœur Scholl pour son livre Der Fremde in uns.
 Il a deux filles : Margaret et Constance.
-Combat en faveur de la démocratie
-Arno Gruen a publié en 2002 Le combat pour la démocratie. Gruen avait commencé la rédaction en mai 2001, avant les attentats du 11 septembre, qui ont beaucoup influencé le livre. Gruen s'y préoccupe des causes de la destructivité humaine.
 </t>
         </is>
       </c>
@@ -546,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Combat en faveur de la démocratie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arno Gruen a publié en 2002 Le combat pour la démocratie. Gruen avait commencé la rédaction en mai 2001, avant les attentats du 11 septembre, qui ont beaucoup influencé le livre. Gruen s'y préoccupe des causes de la destructivité humaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arno_Gruen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arno_Gruen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Autonomy and Identification: The Paradox of their Opposition, The International Journal of Psychoanalysis, Vol. 49 1968 (4), p. 648; 1968
 Der Verrat am Selbst – Die Angst vor Autonomie bei Mann und Frau; 1984 (traduction : La Trahison du moi Éditions Laffont 1991)
